--- a/to_predict.xlsx
+++ b/to_predict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezan\Documents\Master in Applied Data Science\2nd Year\MASTER THESIS\GIT THESIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D30122-ABC9-4534-A7C4-2C244ED32DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB24AC3-8001-433B-AF6F-D2754C68B1B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
